--- a/biology/Botanique/Faux-Corête/Faux-Corête.xlsx
+++ b/biology/Botanique/Faux-Corête/Faux-Corête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux-Cor%C3%AAte</t>
+          <t>Faux-Corête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodotypos scandens est une espèce de plantes à fleurs de la famille des Rosacées. C'est, selon les sources, la seule espèce du genre Rhodotypos (genre monospécifique). C'est un arbuste feuillu, étroitement liée au genre Kerria et inclus dans ce genre par certains botanistes. Il est originaire d'Asie (Chine, Japon).
 Il est aussi appelé rhodotype à quatre pétales ou Faux-Corète.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux-Cor%C3%AAte</t>
+          <t>Faux-Corête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodotypos signifie en latin "du type de la rose" pour la vague ressemblance de sa fleur avec une rose à fleur simple. Scandens signifie "grimpant".
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux-Cor%C3%AAte</t>
+          <t>Faux-Corête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste multi-branches à croissance rapide pouvant mesurer jusqu'à 2 m de haut sur 2 m de large, à pousses arquées et feuilles.
 Ses feuilles caduques, opposées, ovales, effilées, vert tendre de 3-6 cm de long et 2-4 cm de large ont une marge dentelée simple et sont profondément veinées.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux-Cor%C3%AAte</t>
+          <t>Faux-Corête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhodotypos supporte bien le froid (au moins jusqu'à −15 °C) et s'accommode de la plupart des sols, préférant cependant les terrains légers situés à mi-ombre.
 Multiplication facile par bouturage en juin (jeune bois) ou à l’automne (bois aoûté). Le semis et le marcottage sont possibles.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faux-Cor%C3%AAte</t>
+          <t>Faux-Corête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses graines sont parfois utilisées pour faire des colliers.
 </t>
